--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.164074929868522</v>
+        <v>0.929189470362074</v>
       </c>
       <c r="D2">
-        <v>0.2445590319834177</v>
+        <v>0.3628747910381653</v>
       </c>
       <c r="E2">
         <v>3.56917500500362</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8679754898170248</v>
+        <v>0.8595303070699916</v>
       </c>
       <c r="D3">
-        <v>0.3855317902391575</v>
+        <v>0.3993174793716168</v>
       </c>
       <c r="E3">
         <v>3.56917500500362</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.03544132419973135</v>
+        <v>-0.03430736342932208</v>
       </c>
       <c r="D4">
-        <v>0.9717320463319361</v>
+        <v>0.9729414277102797</v>
       </c>
       <c r="E4">
         <v>3.56917500500362</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.839659155214201</v>
+        <v>-1.750982909030123</v>
       </c>
       <c r="D5">
-        <v>0.06599473886681961</v>
+        <v>0.09388194302898722</v>
       </c>
       <c r="E5">
         <v>3.56917500500362</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4699733565663528</v>
+        <v>-0.3902222016006309</v>
       </c>
       <c r="D6">
-        <v>0.6384350871860938</v>
+        <v>0.700124861785838</v>
       </c>
       <c r="E6">
         <v>2.789165874121422</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.654046709296235</v>
+        <v>-1.511851389410856</v>
       </c>
       <c r="D7">
-        <v>0.0983049444177857</v>
+        <v>0.1448041941464893</v>
       </c>
       <c r="E7">
         <v>2.789165874121422</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.657796306035019</v>
+        <v>-2.171763409615829</v>
       </c>
       <c r="D8">
-        <v>0.007939966875256443</v>
+        <v>0.04093076912766969</v>
       </c>
       <c r="E8">
         <v>2.789165874121422</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.101196673706703</v>
+        <v>-1.167390996076714</v>
       </c>
       <c r="D9">
-        <v>0.2709689085107052</v>
+        <v>0.2555498672096044</v>
       </c>
       <c r="E9">
         <v>3.015256827853141</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.107369967926987</v>
+        <v>-1.831204767259032</v>
       </c>
       <c r="D10">
-        <v>0.03523346543112216</v>
+        <v>0.08064776561340259</v>
       </c>
       <c r="E10">
         <v>3.015256827853141</v>
@@ -661,7 +661,7 @@
         <v>4.772946319902361</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.42578827564886</v>
+        <v>-1.339052375300054</v>
       </c>
       <c r="D11">
-        <v>0.1541153518547622</v>
+        <v>0.1942258479097894</v>
       </c>
       <c r="E11">
         <v>3.594113645738543</v>
